--- a/biology/Botanique/Jardin_botanique_de_Dresde/Jardin_botanique_de_Dresde.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Dresde/Jardin_botanique_de_Dresde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Dresde (Botanischer Garten Dresden) est un jardin botanique situé en Allemagne, à Dresde, et qui a été fondé en 1820 par Ludwig Reichenbach, sous le nom de jardin botanique royal, mais dont l'espace actuel a été inauguré en 1893. Il dépend depuis 1949 de l'université technique de Dresde et comprend environ dix mille espèces de plantes. Son code d'identification internationale est DR, en tant que membre de la BGCI.
@@ -512,7 +524,9 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  jardin botanique de Dresde se trouve au nord-ouest du Grand Jardin de Dresde (Großer Garten), tout près de la Gläserne Manufaktur de Volkswagen et non loin du centre historique de la ville, au bord de la Stübelallee. Il s'étend sur une surface de 3,5 ha. L'entrée est libre.
 </t>
@@ -543,7 +557,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin a été ouvert par le professeur Reichenbach à un autre emplacement (aujourd'hui occupé par le siège de la Police) en 1820. Il est inauguré à son emplacement actuel sous la direction d'Oscar Drude en 1893. Le jardin est ravagé par les bombardements de Dresde en 1945. Il rouvre partiellement en 1950 et il est resté en travaux pendant de longues années.
 </t>
@@ -574,7 +590,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les collections sont regroupées en des terrains dégagés (Freiland) et dans des serres. Elles sont installées selon des critères phytogéographiques depuis Oscar Drude (1853-1933).
 			Arbre fossilisé
